--- a/Отчеты/OLAP по дням недели для программы по Пирожным 09.03.2023 09.37.19.xlsx
+++ b/Отчеты/OLAP по дням недели для программы по Пирожным 09.03.2023 09.37.19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C4359D-A0CA-454C-AAE2-C3EDAB8A8B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2138A6-3C6B-41E0-9496-477BC4B86464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP по дням недели для програм" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>OLAP по дням недели для программы по Пирожным</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Степная</t>
+  </si>
+  <si>
+    <t>Топольчанская</t>
   </si>
   <si>
     <t>Трнавская</t>
@@ -551,28 +554,27 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="0.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="27" width="21.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -584,11 +586,8 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -600,11 +599,8 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -616,11 +612,8 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -628,9 +621,8 @@
         <v>4</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -658,11 +650,12 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -670,32 +663,32 @@
         <v>8</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="7"/>
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
@@ -735,42 +728,45 @@
       <c r="Z6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="7"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8">
         <v>0.1111</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="2">
+      <c r="D7" s="8">
         <v>0.11890000000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="8"/>
+      <c r="F7" s="2">
         <v>0.1198</v>
       </c>
-      <c r="F7" s="8"/>
       <c r="G7" s="2">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="H7" s="2">
         <v>0.1182</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <v>0.1298</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="8"/>
+      <c r="K7" s="2">
         <v>7.22E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="2">
         <v>0.1111</v>
       </c>
-      <c r="M7" s="8"/>
       <c r="N7" s="2">
         <v>0.1229</v>
       </c>
@@ -796,58 +792,61 @@
         <v>0.107</v>
       </c>
       <c r="V7" s="2">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="W7" s="2">
         <v>0.1278</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>0.1162</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>0.10440000000000001</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>0.1246</v>
       </c>
-      <c r="AA7" s="3">
-        <v>0.1109</v>
+      <c r="AB7" s="3">
+        <v>0.1118</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8">
         <v>0.13550000000000001</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>0.14510000000000001</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="8"/>
+      <c r="F8" s="2">
         <v>0.1449</v>
       </c>
-      <c r="F8" s="8"/>
       <c r="G8" s="2">
         <v>0.13200000000000001</v>
       </c>
       <c r="H8" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="8">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8"/>
+      <c r="K8" s="2">
         <v>0.1278</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="2">
         <v>0.15590000000000001</v>
       </c>
-      <c r="M8" s="8"/>
       <c r="N8" s="2">
         <v>0.13020000000000001</v>
       </c>
@@ -873,58 +872,61 @@
         <v>0.14330000000000001</v>
       </c>
       <c r="V8" s="2">
-        <v>0.12559999999999999</v>
+        <v>0.1273</v>
       </c>
       <c r="W8" s="2">
         <v>0.12559999999999999</v>
       </c>
       <c r="X8" s="2">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="Y8" s="2">
         <v>0.15040000000000001</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>0.1148</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <v>0.13220000000000001</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0.13619999999999999</v>
+      <c r="AB8" s="3">
+        <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>0.13700000000000001</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>0.13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="8"/>
+      <c r="F9" s="2">
         <v>0.13750000000000001</v>
       </c>
-      <c r="F9" s="8"/>
       <c r="G9" s="2">
         <v>0.16239999999999999</v>
       </c>
       <c r="H9" s="2">
         <v>0.1336</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="8"/>
+      <c r="K9" s="2">
         <v>0.12640000000000001</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>0.1489</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="2">
         <v>0.18490000000000001</v>
       </c>
-      <c r="M9" s="8"/>
       <c r="N9" s="2">
         <v>0.14069999999999999</v>
       </c>
@@ -950,58 +952,61 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="V9" s="2">
+        <v>0.1399</v>
+      </c>
+      <c r="W9" s="2">
         <v>0.1381</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>0.14480000000000001</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>0.13980000000000001</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>0.1477</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <v>0.13719999999999999</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0.13830000000000001</v>
+      <c r="AB9" s="3">
+        <v>0.1384</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>0.13980000000000001</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>0.13220000000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="8"/>
+      <c r="F10" s="2">
         <v>0.13819999999999999</v>
       </c>
-      <c r="F10" s="8"/>
       <c r="G10" s="2">
         <v>0.1145</v>
       </c>
       <c r="H10" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="8">
         <v>0.1255</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="8"/>
+      <c r="K10" s="2">
         <v>0.1022</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>0.12970000000000001</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="2">
         <v>0.1242</v>
       </c>
-      <c r="M10" s="8"/>
       <c r="N10" s="2">
         <v>0.1193</v>
       </c>
@@ -1027,58 +1032,61 @@
         <v>0.12740000000000001</v>
       </c>
       <c r="V10" s="2">
+        <v>0.1515</v>
+      </c>
+      <c r="W10" s="2">
         <v>0.14030000000000001</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>0.15190000000000001</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>0.14510000000000001</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>0.15609999999999999</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <v>0.1351</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0.13139999999999999</v>
+      <c r="AB10" s="3">
+        <v>0.1321</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8">
         <v>0.1542</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="2">
+      <c r="D11" s="8">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="8"/>
+      <c r="F11" s="2">
         <v>0.18360000000000001</v>
       </c>
-      <c r="F11" s="8"/>
       <c r="G11" s="2">
         <v>0.1585</v>
       </c>
       <c r="H11" s="2">
         <v>0.1704</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="8">
         <v>0.14910000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="8"/>
+      <c r="K11" s="2">
         <v>0.185</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>0.156</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="2">
         <v>0.155</v>
       </c>
-      <c r="M11" s="8"/>
       <c r="N11" s="2">
         <v>0.16700000000000001</v>
       </c>
@@ -1104,58 +1112,61 @@
         <v>0.1641</v>
       </c>
       <c r="V11" s="2">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="W11" s="2">
         <v>0.15770000000000001</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>0.1434</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>0.15709999999999999</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <v>0.13769999999999999</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <v>0.15670000000000001</v>
       </c>
-      <c r="AA11" s="3">
-        <v>0.15770000000000001</v>
+      <c r="AB11" s="3">
+        <v>0.1578</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8">
         <v>0.16520000000000001</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <v>0.1893</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="8"/>
+      <c r="F12" s="2">
         <v>0.1489</v>
       </c>
-      <c r="F12" s="8"/>
       <c r="G12" s="2">
         <v>0.17710000000000001</v>
       </c>
       <c r="H12" s="2">
         <v>0.1716</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="8">
         <v>0.1855</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8"/>
+      <c r="K12" s="2">
         <v>0.2281</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="2">
         <v>0.1578</v>
       </c>
-      <c r="M12" s="8"/>
       <c r="N12" s="2">
         <v>0.16139999999999999</v>
       </c>
@@ -1181,58 +1192,61 @@
         <v>0.1608</v>
       </c>
       <c r="V12" s="2">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="W12" s="2">
         <v>0.16489999999999999</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>0.17829999999999999</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>0.15129999999999999</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>0.1767</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <v>0.16089999999999999</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0.17380000000000001</v>
+      <c r="AB12" s="3">
+        <v>0.1724</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8">
         <v>0.15709999999999999</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>0.13650000000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="8"/>
+      <c r="F13" s="2">
         <v>0.12720000000000001</v>
       </c>
-      <c r="F13" s="8"/>
       <c r="G13" s="2">
         <v>0.16020000000000001</v>
       </c>
       <c r="H13" s="2">
         <v>0.1343</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="8">
         <v>0.1512</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="8"/>
+      <c r="K13" s="2">
         <v>0.15840000000000001</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>0.17330000000000001</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="2">
         <v>0.1111</v>
       </c>
-      <c r="M13" s="8"/>
       <c r="N13" s="2">
         <v>0.15840000000000001</v>
       </c>
@@ -1258,40 +1272,43 @@
         <v>0.16339999999999999</v>
       </c>
       <c r="V13" s="2">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="W13" s="2">
         <v>0.1457</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <v>0.1399</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <v>0.15179999999999999</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Z13" s="2">
         <v>0.1676</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <v>0.15329999999999999</v>
       </c>
-      <c r="AA13" s="3">
-        <v>0.1517</v>
+      <c r="AB13" s="3">
+        <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1306,42 +1323,43 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="AB5:AB6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:AA5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
